--- a/CashFlow/MCHP_cashflow.xlsx
+++ b/CashFlow/MCHP_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2670000000.0</v>
+        <v>40700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2713000000.0</v>
+        <v>70400000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2052300000.0</v>
+        <v>74200000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1374800000.0</v>
+        <v>28800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>685900000.0</v>
+        <v>2700000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>59900000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>935000000.0</v>
+        <v>71300000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>884000000.0</v>
+        <v>-14800000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>608900000.0</v>
+        <v>-84900000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>447600000.0</v>
+        <v>11400000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>163400000.0</v>
+        <v>-90500000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-151300000.0</v>
